--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H2">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N2">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q2">
-        <v>1.787468676046778</v>
+        <v>0.169632204014</v>
       </c>
       <c r="R2">
-        <v>16.087218084421</v>
+        <v>1.526689836126</v>
       </c>
       <c r="S2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="T2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H3">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q3">
-        <v>5.846542402840335</v>
+        <v>0.5816691257086667</v>
       </c>
       <c r="R3">
-        <v>52.61888162556301</v>
+        <v>5.235022131378001</v>
       </c>
       <c r="S3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="T3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H4">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N4">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q4">
-        <v>1.202184828820556</v>
+        <v>0.2274555906277778</v>
       </c>
       <c r="R4">
-        <v>10.819663459385</v>
+        <v>2.04710031565</v>
       </c>
       <c r="S4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="T4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.05003266666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.150098</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.5028943333333334</v>
-      </c>
-      <c r="H5">
-        <v>1.508683</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N5">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q5">
-        <v>0.01312319525977778</v>
+        <v>0.001088310565333334</v>
       </c>
       <c r="R5">
-        <v>0.118108757338</v>
+        <v>0.009794795088000002</v>
       </c>
       <c r="S5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="T5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
     </row>
   </sheetData>
